--- a/data/EggMuffinsWithMushroomsAndHerbs.xlsx
+++ b/data/EggMuffinsWithMushroomsAndHerbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\eclipse-workspace\wildfit-ETL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC1EF8-BC10-472A-B85E-5CCE364D7FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03AB43-D1ED-4E8A-928F-1819768CBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35550" yWindow="420" windowWidth="21390" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29715" yWindow="1845" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Season</t>
   </si>
@@ -172,6 +172,9 @@
   <si>
     <t>Bake for about 25 minutes. Check at 20 minutes. 
 I like my eggs muffins soft, but if you are batch cooking, they need to cook through.</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72576DC-2686-4A61-B487-4806851E93F0}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +678,9 @@
       <c r="G7" t="s">
         <v>34</v>
       </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -688,6 +694,9 @@
       </c>
       <c r="G8" t="s">
         <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/EggMuffinsWithMushroomsAndHerbs.xlsx
+++ b/data/EggMuffinsWithMushroomsAndHerbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\eclipse-workspace\wildfit-ETL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03AB43-D1ED-4E8A-928F-1819768CBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D9E8E4-9F83-416D-BF31-C7A9A1D7B605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29715" yWindow="1845" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Season</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/a2881c_a45f754f69fd420e9ffa25d7be4b8ed1~mv2.jpg/v1/fill/w_740,h_574,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/a2881c_a45f754f69fd420e9ffa25d7be4b8ed1~mv2.jpg</t>
   </si>
 </sst>
 </file>
@@ -510,24 +516,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="186.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +556,11 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -571,6 +581,9 @@
       </c>
       <c r="G2" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72576DC-2686-4A61-B487-4806851E93F0}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
